--- a/biology/Médecine/Anne_Amable_Augier_du_Fot/Anne_Amable_Augier_du_Fot.xlsx
+++ b/biology/Médecine/Anne_Amable_Augier_du_Fot/Anne_Amable_Augier_du_Fot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Amable Augier du Fot, né à Aubusson (Haute Marche),le 14 mars 1733, mort à Soissons en 1775[1], est un médecin français. Il est connu comme l'auteur d'un ouvrage sur l'« art des accouchements » (qui est en fait de Jean-Louis Baudelocque). Du Fot est chroniqueur ; il écrit sur l'épidémiologie animale. Il est aussi un ardent opposant des jésuites.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Amable Augier du Fot, né à Aubusson (Haute Marche),le 14 mars 1733, mort à Soissons en 1775, est un médecin français. Il est connu comme l'auteur d'un ouvrage sur l'« art des accouchements » (qui est en fait de Jean-Louis Baudelocque). Du Fot est chroniqueur ; il écrit sur l'épidémiologie animale. Il est aussi un ardent opposant des jésuites.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,20 +551,124 @@
           <t>Œuvres (liste partielle)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Jésuites atteints et convaincus de ladrerie, 1759, 19 p. — Numérisation Google
 Réponse de l'auteur de la ladrerie, à l'espion des Jésuites, 1759, 46 p. — Numérisation Google
-Mémoire sur les maladies épidémiques qui depuis cinq ans ont régné dans le pays laonnois, 1770 — Réédité en 1771[2]
+Mémoire sur les maladies épidémiques qui depuis cinq ans ont régné dans le pays laonnois, 1770 — Réédité en 1771
 Mémoire pour préserver les bêtes à cornes de la maladie épizootique qui règne dans la généralité de Soissons, Soissons, P. Courtois, 1773 — Numérisation : Gallica
-Journal historique, géographique et physique de tous les tremblements de terre et autres évènements arrivés dans l'univers pendant les années 1755 et 1756, 1756[3]
-Dissertation sur la maladie contagieuse des bêtes à cornes, Editeur inconnu (Bouillon), 1774. Disponible en ligne sur IRIS.
-Correspondance
-Extrait d'une Lettre de M. Dolignon, Maître en Chirurgie à Cressi-en-Laonois à M. Dufot, Médecin-Pensionnaire du Roi &amp; de la Ville de Soissons, Démonstrateur de l'art des Accouchemens, 15 juin 1774, p. 67–71 — Reproduction d'un article du Journal encyclopédique
-Attribution
-(auteur réel : Jean-Louis Baudelocque[4]) Catéchisme sur l'art des accouchemens pour les sages-femmes de la campagne, Soissons et Paris, 1775 — Autres éditions : Pézenas, Joseph Fuzier, 1775[5] ; Montpellier, Jean Martel aîné, 1776 ; Paris, Didot le jeune &amp; Ruault, 1784 — Numérisation : université d'Ottawa
-Listes d’œuvres
-Joullietton 1814 — Du Catéchisme, Joullietton dit : « ouvrage qui a été le sujet de contestations entre MM. Dufot et Baudeloque [sic] »</t>
+Journal historique, géographique et physique de tous les tremblements de terre et autres évènements arrivés dans l'univers pendant les années 1755 et 1756, 1756
+Dissertation sur la maladie contagieuse des bêtes à cornes, Editeur inconnu (Bouillon), 1774. Disponible en ligne sur IRIS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne_Amable_Augier_du_Fot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Amable_Augier_du_Fot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres (liste partielle)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Correspondance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Extrait d'une Lettre de M. Dolignon, Maître en Chirurgie à Cressi-en-Laonois à M. Dufot, Médecin-Pensionnaire du Roi &amp; de la Ville de Soissons, Démonstrateur de l'art des Accouchemens, 15 juin 1774, p. 67–71 — Reproduction d'un article du Journal encyclopédique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne_Amable_Augier_du_Fot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Amable_Augier_du_Fot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres (liste partielle)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Attribution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(auteur réel : Jean-Louis Baudelocque) Catéchisme sur l'art des accouchemens pour les sages-femmes de la campagne, Soissons et Paris, 1775 — Autres éditions : Pézenas, Joseph Fuzier, 1775 ; Montpellier, Jean Martel aîné, 1776 ; Paris, Didot le jeune &amp; Ruault, 1784 — Numérisation : université d'Ottawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne_Amable_Augier_du_Fot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Amable_Augier_du_Fot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres (liste partielle)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Listes d’œuvres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Joullietton 1814 — Du Catéchisme, Joullietton dit : « ouvrage qui a été le sujet de contestations entre MM. Dufot et Baudeloque [sic] »</t>
         </is>
       </c>
     </row>
